--- a/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-08T08:37:57+00:00</t>
+    <t>2026-01-08T16:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-08T16:36:03+00:00</t>
+    <t>2026-01-29T13:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T13:48:16+00:00</t>
+    <t>2026-01-29T15:32:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T15:32:56+00:00</t>
+    <t>2026-02-13T13:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-13T13:55:58+00:00</t>
+    <t>2026-02-13T15:49:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-13T15:49:29+00:00</t>
+    <t>2026-02-18T14:26:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:26:56+00:00</t>
+    <t>2026-02-19T09:47:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:47:09+00:00</t>
+    <t>2026-02-20T10:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:43:39+00:00</t>
+    <t>2026-02-20T14:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-SFE/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T14:49:22+00:00</t>
+    <t>2026-02-20T15:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
